--- a/multipath/multipath.cir.r002-r004_combined_v2.xlsx
+++ b/multipath/multipath.cir.r002-r004_combined_v2.xlsx
@@ -48,10 +48,10 @@
     <t># Number of Sets:</t>
   </si>
   <si>
-    <t>Set#</t>
+    <t>Total Paths</t>
   </si>
   <si>
-    <t>Paths</t>
+    <t>Set Number</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,24 +903,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
